--- a/data/trans_dic/P44A$sangre-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Estudios-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.1210067933419982</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6808708505952701</v>
+        <v>0.6808708505952702</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1232113019934902</v>
@@ -664,7 +664,7 @@
         <v>0.1060967218275783</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6611177141931891</v>
+        <v>0.661117714193189</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06677504969421807</v>
+        <v>0.06519428861663057</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0339877078026604</v>
+        <v>0.03386635272584397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5656868401421706</v>
+        <v>0.5702281358235122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04590338134229266</v>
+        <v>0.04545171265451883</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05264251854853384</v>
+        <v>0.05239591578949011</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6190887974043237</v>
+        <v>0.6279767474204969</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06743376764097007</v>
+        <v>0.06735054426633857</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06047144865119953</v>
+        <v>0.06000519907797654</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.614778689303628</v>
+        <v>0.6220306534474649</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2807712248026947</v>
+        <v>0.2796421744317977</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1955681364142202</v>
+        <v>0.1809143700697711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.705670232716279</v>
+        <v>0.7002141015601543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1990082424134669</v>
+        <v>0.1923950679639345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2292285866013897</v>
+        <v>0.2291738735460626</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7297570887632422</v>
+        <v>0.7305861742612356</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1946546354691745</v>
+        <v>0.1899759477807259</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1752409547842477</v>
+        <v>0.1773354914041182</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7005280075279186</v>
+        <v>0.7039082542606294</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.09508035349869004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6702843006763386</v>
+        <v>0.6702843006763387</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.06601475887144062</v>
@@ -773,7 +773,7 @@
         <v>0.07378126900563817</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6899363439738396</v>
+        <v>0.6899363439738394</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08355010271353593</v>
+        <v>0.09978404497841749</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03502016920036112</v>
+        <v>0.03632801459503227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6215698522511183</v>
+        <v>0.6185774596200637</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6589888783132561</v>
+        <v>0.6689392184623164</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.073276770500405</v>
+        <v>0.07534424914424789</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0328144296539457</v>
+        <v>0.03221136242052988</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6546666664336053</v>
+        <v>0.6565367648511448</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3208985593889963</v>
+        <v>0.3485348293169691</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1927095010439484</v>
+        <v>0.1984630775539903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7187739370144095</v>
+        <v>0.7197170044615141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.219215733124328</v>
+        <v>0.2271753990201068</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.145697582393313</v>
+        <v>0.1398278570194851</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7531480930752218</v>
+        <v>0.7561638185315043</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2379182732782319</v>
+        <v>0.2442063637930598</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1480296898399823</v>
+        <v>0.1439620084156923</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7210850269428779</v>
+        <v>0.7235927669440385</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.175859108578563</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5933911304591822</v>
+        <v>0.5933911304591823</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.07820791810222452</v>
@@ -873,7 +873,7 @@
         <v>0.06282218315334673</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.735804949989702</v>
+        <v>0.7358049499897021</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1509646433882595</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05184903598997932</v>
+        <v>0.06261273692588917</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06130501623638302</v>
+        <v>0.06542084853839293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.51702224820861</v>
+        <v>0.5101699151495108</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6663357612525501</v>
+        <v>0.6601598746624521</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03725392773045046</v>
+        <v>0.03559403234612246</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05889657388088683</v>
+        <v>0.05286094187300868</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6032679519908618</v>
+        <v>0.5972418465301145</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5247742970814776</v>
+        <v>0.5033853909437193</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3548314306926259</v>
+        <v>0.3418796423339233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6690603720139066</v>
+        <v>0.6645168256162978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4769396742632534</v>
+        <v>0.3413867254325877</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2955452731952089</v>
+        <v>0.3313127973575261</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8037120601618265</v>
+        <v>0.8022049927644638</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3351524573926034</v>
+        <v>0.3326479712114697</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2637110337783918</v>
+        <v>0.269068853511345</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7068844200820038</v>
+        <v>0.7074963967300191</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.08331401560111606</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1338177926115367</v>
@@ -991,7 +991,7 @@
         <v>0.09739170590456869</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6737424715680991</v>
+        <v>0.6737424715680992</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06570265729157747</v>
+        <v>0.06708899872561459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6056088170134564</v>
+        <v>0.6086639395895989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04577609607322358</v>
+        <v>0.03815979514484624</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0382173489264884</v>
+        <v>0.03672466567530134</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09100446100230589</v>
+        <v>0.0933016827162613</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06524538396510136</v>
+        <v>0.06195453897989595</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6507879459700152</v>
+        <v>0.6518547211188799</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.164647552190979</v>
+        <v>0.1728147277955006</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6770476458524428</v>
+        <v>0.6797784953205906</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1543769296344139</v>
+        <v>0.1482910786530361</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1585121361094049</v>
+        <v>0.1475562710364327</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1944591634206423</v>
+        <v>0.1855942770412549</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1387801939673734</v>
+        <v>0.1376963916207935</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6962756089377667</v>
+        <v>0.6971791150064759</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3009</v>
+        <v>2937</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>84568</v>
+        <v>85247</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2888</v>
+        <v>2859</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>115673</v>
+        <v>117334</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7281</v>
+        <v>7272</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6883</v>
+        <v>6830</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>206775</v>
+        <v>209214</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12651</v>
+        <v>12600</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10114</v>
+        <v>9356</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105495</v>
+        <v>104679</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12520</v>
+        <v>12104</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14238</v>
+        <v>14235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>136351</v>
+        <v>136506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21016</v>
+        <v>20511</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19948</v>
+        <v>20186</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>235616</v>
+        <v>236753</v>
       </c>
     </row>
     <row r="8">
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4156</v>
+        <v>4964</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2734</v>
+        <v>2836</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>180127</v>
+        <v>179260</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>161330</v>
+        <v>163766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5876</v>
+        <v>6042</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3758</v>
+        <v>3689</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>349990</v>
+        <v>350990</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15964</v>
+        <v>17339</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15047</v>
+        <v>15496</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>208296</v>
+        <v>208570</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6673</v>
+        <v>6916</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5310</v>
+        <v>5096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>184382</v>
+        <v>185120</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19078</v>
+        <v>19582</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16953</v>
+        <v>16487</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>385498</v>
+        <v>386838</v>
       </c>
     </row>
     <row r="12">
@@ -1577,13 +1577,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>755</v>
+        <v>912</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1774</v>
+        <v>1893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>66963</v>
+        <v>66076</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1592,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64373</v>
+        <v>63777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1008</v>
+        <v>963</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2655</v>
+        <v>2383</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>136414</v>
+        <v>135051</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7642</v>
+        <v>7331</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10270</v>
+        <v>9895</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>86655</v>
+        <v>86066</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5956</v>
+        <v>4264</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4771</v>
+        <v>5348</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77645</v>
+        <v>77499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9067</v>
+        <v>8999</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11890</v>
+        <v>12132</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>159844</v>
+        <v>159983</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10430</v>
+        <v>10650</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>344475</v>
+        <v>346212</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4845</v>
+        <v>4039</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4384</v>
+        <v>4212</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19585</v>
+        <v>20079</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17841</v>
+        <v>16941</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>713962</v>
+        <v>715132</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26136</v>
+        <v>27433</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>385109</v>
+        <v>386663</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16340</v>
+        <v>15696</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18181</v>
+        <v>16925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41849</v>
+        <v>39942</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37948</v>
+        <v>37652</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>763865</v>
+        <v>764856</v>
       </c>
     </row>
     <row r="20">
